--- a/lpagg/examples/VDI_4655_houses_example.xlsx
+++ b/lpagg/examples/VDI_4655_houses_example.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDEB822-7517-4CED-8598-060FB840A7FE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB248E4-630D-42E5-A773-97E484B1A22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26385" yWindow="8145" windowWidth="25470" windowHeight="18495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>EFH</t>
   </si>
@@ -28,9 +28,6 @@
     <t>MFH</t>
   </si>
   <si>
-    <t>Buero</t>
-  </si>
-  <si>
     <t>Handel</t>
   </si>
   <si>
@@ -61,13 +58,19 @@
     <t>sigma</t>
   </si>
   <si>
-    <t>G1G</t>
-  </si>
-  <si>
-    <t>G4G</t>
-  </si>
-  <si>
     <t>Q_Kalt_a</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>GHD/G1</t>
+  </si>
+  <si>
+    <t>GHA/G4</t>
+  </si>
+  <si>
+    <t>Büro</t>
   </si>
 </sst>
 </file>
@@ -388,15 +391,15 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -404,15 +407,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>6000</v>
@@ -427,9 +430,9 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>7000</v>
@@ -438,9 +441,15 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
       <c r="D4">
         <v>1500</v>
@@ -449,9 +458,15 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
       <c r="D5">
         <v>60000</v>
@@ -460,9 +475,9 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -477,9 +492,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -488,15 +503,15 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -511,9 +526,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -528,26 +543,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
-      </c>
-      <c r="B10">
-        <v>24</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -564,5 +579,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>